--- a/校赛建模/ID表.xlsx
+++ b/校赛建模/ID表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dxy\数模\校赛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\数学建模\MCM-2019-College\校赛建模\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417CB754-0021-479D-840F-352B9A75F3B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA59D84-69C6-421D-8E40-FCCBB5DCEC41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{C3CBF955-E059-429B-AA20-3D227A050FFB}"/>
+    <workbookView xWindow="2160" yWindow="2724" windowWidth="17280" windowHeight="8964" xr2:uid="{C3CBF955-E059-429B-AA20-3D227A050FFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>单位时间段中乘车最多次数（一个小时为单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用过移动支付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220CECCD-DE3C-49E2-862E-83B5E6B17A8F}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -423,7 +427,7 @@
     <col min="5" max="6" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,9 +440,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="B2:B5">
+    <sortCondition ref="B2:B5"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>